--- a/biology/Médecine/Stéphane_Leduc/Stéphane_Leduc.xlsx
+++ b/biology/Médecine/Stéphane_Leduc/Stéphane_Leduc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>St%C3%A9phane_Leduc</t>
+          <t>Stéphane_Leduc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Stéphane Armand Nicolas Leduc (1er novembre 1853 à Nantes – 8 mars 1939 à Nantes)[1], est un biologiste et chimiste français qui fut professeur à l'École de médecine de Nantes. Il crut avoir identifié les mécanismes chimiques du vivant lors de ses études sur la cristallisation osmotique. Il étudia également les effets physiologiques du courant électrique. En France, il est l'un des précurseurs de la radiothérapie externe[2] car il comprend l'intérêt des rayons X en cancérologie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stéphane Armand Nicolas Leduc (1er novembre 1853 à Nantes – 8 mars 1939 à Nantes), est un biologiste et chimiste français qui fut professeur à l'École de médecine de Nantes. Il crut avoir identifié les mécanismes chimiques du vivant lors de ses études sur la cristallisation osmotique. Il étudia également les effets physiologiques du courant électrique. En France, il est l'un des précurseurs de la radiothérapie externe car il comprend l'intérêt des rayons X en cancérologie.
 Il est probablement à l'origine du terme « biologie synthétique ».
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>St%C3%A9phane_Leduc</t>
+          <t>Stéphane_Leduc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>St%C3%A9phane_Leduc</t>
+          <t>Stéphane_Leduc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +552,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>S. Leduc, Les bases physiques de la vie et la biogenèse (1906), éd. Masson, Paris,
 S. Leduc, « La biologie synthétique, étude de biophysique », A. Poinat, 1912 (consulté le 28 août 2007)
